--- a/Metadata_youtube.xlsx
+++ b/Metadata_youtube.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vatsa\TT\SpinClassifier\TT_spin_classifier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vyas Raina\Documents\Software_Projects\TT\Model\TT_spin_classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008C6387-36AA-442A-B3A9-48C8531BE112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A897DED3-D913-43FB-ADCA-103AD62D5CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A9C22603-7041-48CF-BF61-745C2CAF1C55}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -61,16 +61,189 @@
   </si>
   <si>
     <t>Penhold?</t>
+  </si>
+  <si>
+    <t>clip1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GMyFbLdcREs</t>
+  </si>
+  <si>
+    <t>Time stamp</t>
+  </si>
+  <si>
+    <t>CENTRE</t>
+  </si>
+  <si>
+    <t>Xu Xin</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>Ma Lin</t>
+  </si>
+  <si>
+    <t>2010 ITTF Kuwait Open Final</t>
+  </si>
+  <si>
+    <t>SPEED DRIVE</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>FH</t>
+  </si>
+  <si>
+    <t>clip2</t>
+  </si>
+  <si>
+    <t>0:56.30</t>
+  </si>
+  <si>
+    <t>0:57.63</t>
+  </si>
+  <si>
+    <t>1:21.73</t>
+  </si>
+  <si>
+    <t>SLICE</t>
+  </si>
+  <si>
+    <t>clip3</t>
+  </si>
+  <si>
+    <t>clip4</t>
+  </si>
+  <si>
+    <t>3:51.30</t>
+  </si>
+  <si>
+    <t>SMASH</t>
+  </si>
+  <si>
+    <t>5:33.10</t>
+  </si>
+  <si>
+    <t>BLOCK</t>
+  </si>
+  <si>
+    <t>clip5</t>
+  </si>
+  <si>
+    <t>5:53.16</t>
+  </si>
+  <si>
+    <t>clip6</t>
+  </si>
+  <si>
+    <t>LOOP DRIVE</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>clip7</t>
+  </si>
+  <si>
+    <t>8:56.56</t>
+  </si>
+  <si>
+    <t>11:59.06</t>
+  </si>
+  <si>
+    <t>FLICK</t>
+  </si>
+  <si>
+    <t>clip8</t>
+  </si>
+  <si>
+    <t>16:21.63</t>
+  </si>
+  <si>
+    <t>clip9</t>
+  </si>
+  <si>
+    <t>25.03.46</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>clip10</t>
+  </si>
+  <si>
+    <t>35:43.70</t>
+  </si>
+  <si>
+    <t>SIDE DRIVE</t>
+  </si>
+  <si>
+    <t>clip11</t>
+  </si>
+  <si>
+    <t>40:59.53</t>
+  </si>
+  <si>
+    <t>LOB</t>
+  </si>
+  <si>
+    <t>clip12</t>
+  </si>
+  <si>
+    <t>47:14.56</t>
+  </si>
+  <si>
+    <t>clip13</t>
+  </si>
+  <si>
+    <t>50:37.06</t>
+  </si>
+  <si>
+    <t>PUSH-BLOCK</t>
+  </si>
+  <si>
+    <t>clip14</t>
+  </si>
+  <si>
+    <t>55:09.50</t>
+  </si>
+  <si>
+    <t>clip15</t>
+  </si>
+  <si>
+    <t>57:43.36</t>
+  </si>
+  <si>
+    <t>clip16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,16 +266,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -116,9 +297,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66369352-10E0-472D-8237-914C7EC25ECA}" name="Table1" displayName="Table1" ref="A1:J33" totalsRowShown="0">
-  <autoFilter ref="A1:J33" xr:uid="{81BED2F6-A735-48E8-8312-3441EAEEF1B9}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66369352-10E0-472D-8237-914C7EC25ECA}" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0">
+  <autoFilter ref="A1:K33" xr:uid="{81BED2F6-A735-48E8-8312-3441EAEEF1B9}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{DF59981D-0EFF-443B-97EC-88206A26AB07}" name="ID"/>
     <tableColumn id="2" xr3:uid="{85D201EA-997B-46FC-ABB5-FBAEB62C900B}" name="FH/BH"/>
     <tableColumn id="3" xr3:uid="{580C930F-7AB4-47E8-AC34-67F0E5B3B6B2}" name="Shot"/>
@@ -129,6 +310,7 @@
     <tableColumn id="6" xr3:uid="{3FA50B57-1273-4D56-B3C6-BAD99DE7DA80}" name="Player off camera"/>
     <tableColumn id="7" xr3:uid="{F1273831-6486-407F-B423-379C91122F34}" name="Camera position"/>
     <tableColumn id="8" xr3:uid="{D935DDB2-6EDC-46C4-BF6F-71804F425431}" name="Link"/>
+    <tableColumn id="11" xr3:uid="{3CD57122-DBCD-4D6E-BDEC-D6294E962522}" name="Time stamp" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -431,24 +613,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172545AB-FD49-4BA5-8D0D-D9C0E3079292}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,9 +664,573 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{2E77D5AE-80A7-4DAD-A997-2F60E5ED1395}">
       <formula1>"FH,BH"</formula1>
@@ -499,9 +1248,28 @@
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{1EE414D5-0FBE-4491-9387-D8DE6C991E60}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{991B3B21-0E21-4102-A6CC-41A503580C21}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{8BE99786-6B97-4FE9-9155-CF392D41AC3A}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{4311E166-8267-43F0-93BA-3CE39602087F}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{CB71C188-AA64-44B9-A34F-C1ED7F05C343}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{BFBE17CD-5919-479D-9B1D-C0BEA834D314}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{41AA714B-7E8C-421A-A765-30771EED03B0}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{F31D6FF8-5411-4E1E-BAFE-3813369C81EF}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{A569F650-E5ED-4832-B4C0-B253689209D0}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{7002C40D-4926-432E-B12E-AABB69AD9C00}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{F4A8D93B-5EF9-4E40-9E4C-30FD67D70785}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{11739750-7E6E-4293-9C43-AD41DF289BC1}"/>
+    <hyperlink ref="J14" r:id="rId13" xr:uid="{BD56DCDA-79E3-489F-80A9-7EC3A0D30848}"/>
+    <hyperlink ref="J15" r:id="rId14" xr:uid="{3308D85E-5928-458D-B2DB-213278F37016}"/>
+    <hyperlink ref="J16" r:id="rId15" xr:uid="{58DE432B-1235-49E1-A545-6D919CE879B7}"/>
+    <hyperlink ref="J17" r:id="rId16" xr:uid="{14DA775F-C22C-49F4-B9BF-E7D6C21066CC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Metadata_youtube.xlsx
+++ b/Metadata_youtube.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vyas Raina\Documents\Software_Projects\TT\Model\TT_spin_classifier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vatsa\TT\SpinClassifier\TT_spin_classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A897DED3-D913-43FB-ADCA-103AD62D5CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E83143-8C73-4962-9FF2-28544FBFF556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A9C22603-7041-48CF-BF61-745C2CAF1C55}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9C22603-7041-48CF-BF61-745C2CAF1C55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -220,6 +220,105 @@
   </si>
   <si>
     <t>clip16</t>
+  </si>
+  <si>
+    <t>clip17</t>
+  </si>
+  <si>
+    <t>Zen-Noh 2019 ITTF Team World Cup</t>
+  </si>
+  <si>
+    <t>Liang Jingkun</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Jeoung Youngsik</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-qMNm3ne1xY</t>
+  </si>
+  <si>
+    <t>clip18</t>
+  </si>
+  <si>
+    <t>0:38.10</t>
+  </si>
+  <si>
+    <t>1:28.03</t>
+  </si>
+  <si>
+    <t>clip19</t>
+  </si>
+  <si>
+    <t>clip20</t>
+  </si>
+  <si>
+    <t>clip21</t>
+  </si>
+  <si>
+    <t>clip22</t>
+  </si>
+  <si>
+    <t>clip23</t>
+  </si>
+  <si>
+    <t>clip24</t>
+  </si>
+  <si>
+    <t>clip25</t>
+  </si>
+  <si>
+    <t>clip26</t>
+  </si>
+  <si>
+    <t>2:26.10</t>
+  </si>
+  <si>
+    <t>3:59.36</t>
+  </si>
+  <si>
+    <t>4:59.73</t>
+  </si>
+  <si>
+    <t>23:31.80</t>
+  </si>
+  <si>
+    <t>23:34.53</t>
+  </si>
+  <si>
+    <t>25:35.10</t>
+  </si>
+  <si>
+    <t>31:52.50</t>
+  </si>
+  <si>
+    <t>35:10.43</t>
+  </si>
+  <si>
+    <t>clip27</t>
+  </si>
+  <si>
+    <t>35:40.90</t>
+  </si>
+  <si>
+    <t>clip28</t>
+  </si>
+  <si>
+    <t>38:54.30</t>
+  </si>
+  <si>
+    <t>41:33.86</t>
+  </si>
+  <si>
+    <t>clip29</t>
+  </si>
+  <si>
+    <t>clip30</t>
+  </si>
+  <si>
+    <t>44:37.63</t>
   </si>
 </sst>
 </file>
@@ -613,23 +712,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172545AB-FD49-4BA5-8D0D-D9C0E3079292}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1228,7 +1327,496 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="5">
@@ -1265,11 +1853,17 @@
     <hyperlink ref="J15" r:id="rId14" xr:uid="{3308D85E-5928-458D-B2DB-213278F37016}"/>
     <hyperlink ref="J16" r:id="rId15" xr:uid="{58DE432B-1235-49E1-A545-6D919CE879B7}"/>
     <hyperlink ref="J17" r:id="rId16" xr:uid="{14DA775F-C22C-49F4-B9BF-E7D6C21066CC}"/>
+    <hyperlink ref="J18" r:id="rId17" xr:uid="{9AC8654B-9004-41A2-819C-663FBABFBB9D}"/>
+    <hyperlink ref="J19:J27" r:id="rId18" display="https://www.youtube.com/watch?v=-qMNm3ne1xY" xr:uid="{896BB6F0-448F-4C4D-943D-B011A1B2CE16}"/>
+    <hyperlink ref="J28" r:id="rId19" xr:uid="{CA1204C1-ED77-4AFD-A00C-CBA6739DD119}"/>
+    <hyperlink ref="J29" r:id="rId20" xr:uid="{8AC7F836-D217-4AED-AA0E-55CC42BBE272}"/>
+    <hyperlink ref="J30" r:id="rId21" xr:uid="{D5ADBEBE-B781-4FE9-BC8D-E3800617174A}"/>
+    <hyperlink ref="J31" r:id="rId22" xr:uid="{861DCC2F-3454-41B3-9970-BB1F6A1A6763}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Metadata_youtube.xlsx
+++ b/Metadata_youtube.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vatsa\TT\SpinClassifier\TT_spin_classifier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vyas Raina\Documents\Software_Projects\TT\Model\TT_spin_classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E83143-8C73-4962-9FF2-28544FBFF556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1622D55-782F-46E0-9082-170C5E462B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9C22603-7041-48CF-BF61-745C2CAF1C55}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A9C22603-7041-48CF-BF61-745C2CAF1C55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -319,6 +319,78 @@
   </si>
   <si>
     <t>44:37.63</t>
+  </si>
+  <si>
+    <t>clip31</t>
+  </si>
+  <si>
+    <t>2018 World Team Championships</t>
+  </si>
+  <si>
+    <t>Liu Shiwen</t>
+  </si>
+  <si>
+    <t>Mima Ito</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D3WmZIno7vs</t>
+  </si>
+  <si>
+    <t>0:25.06</t>
+  </si>
+  <si>
+    <t>clip32</t>
+  </si>
+  <si>
+    <t>0:56.86</t>
+  </si>
+  <si>
+    <t>0:57.76</t>
+  </si>
+  <si>
+    <t>1:21.96</t>
+  </si>
+  <si>
+    <t>1:23.36</t>
+  </si>
+  <si>
+    <t>1:24.73</t>
+  </si>
+  <si>
+    <t>7:19.93</t>
+  </si>
+  <si>
+    <t>clip33</t>
+  </si>
+  <si>
+    <t>clip34</t>
+  </si>
+  <si>
+    <t>clip35</t>
+  </si>
+  <si>
+    <t>clip36</t>
+  </si>
+  <si>
+    <t>clip37</t>
+  </si>
+  <si>
+    <t>12:09.70</t>
+  </si>
+  <si>
+    <t>37:39.36</t>
+  </si>
+  <si>
+    <t>44:59.86</t>
+  </si>
+  <si>
+    <t>clip38</t>
+  </si>
+  <si>
+    <t>clip39</t>
+  </si>
+  <si>
+    <t>clip40</t>
   </si>
 </sst>
 </file>
@@ -396,8 +468,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66369352-10E0-472D-8237-914C7EC25ECA}" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0">
-  <autoFilter ref="A1:K33" xr:uid="{81BED2F6-A735-48E8-8312-3441EAEEF1B9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66369352-10E0-472D-8237-914C7EC25ECA}" name="Table1" displayName="Table1" ref="A1:K61" totalsRowShown="0">
+  <autoFilter ref="A1:K61" xr:uid="{81BED2F6-A735-48E8-8312-3441EAEEF1B9}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{DF59981D-0EFF-443B-97EC-88206A26AB07}" name="ID"/>
     <tableColumn id="2" xr3:uid="{85D201EA-997B-46FC-ABB5-FBAEB62C900B}" name="FH/BH"/>
@@ -712,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172545AB-FD49-4BA5-8D0D-D9C0E3079292}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1817,6 +1889,362 @@
         <v>95</v>
       </c>
     </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="5">
@@ -1829,7 +2257,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{F76C36A9-DCB9-4CC9-8BAC-E39A10C32D78}">
       <formula1>"SPEED DRIVE,LOOP DRIVE,FLICK,SMASH,SLICE,CHOP,BLOCK,PUSH-BLOCK,SIDE DRIVE,LOB,STOP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H34:H1048576 I1:I33" xr:uid="{A1296B59-2288-4745-AA5B-44A4FA2D861F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H62:H1048576 I1:I61" xr:uid="{A1296B59-2288-4745-AA5B-44A4FA2D861F}">
       <formula1>"LEFT,RIGHT,CENTRE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{101F5CD2-4675-487D-B173-6B9245FF1FAF}">
@@ -1859,11 +2287,12 @@
     <hyperlink ref="J29" r:id="rId20" xr:uid="{8AC7F836-D217-4AED-AA0E-55CC42BBE272}"/>
     <hyperlink ref="J30" r:id="rId21" xr:uid="{D5ADBEBE-B781-4FE9-BC8D-E3800617174A}"/>
     <hyperlink ref="J31" r:id="rId22" xr:uid="{861DCC2F-3454-41B3-9970-BB1F6A1A6763}"/>
+    <hyperlink ref="J32" r:id="rId23" xr:uid="{3501DFFE-53F9-4118-90AA-67D573CF9732}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId24"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Metadata_youtube.xlsx
+++ b/Metadata_youtube.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vyas Raina\Documents\Software_Projects\TT\Model\TT_spin_classifier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vatsa\TT\SpinClassifier\TT_spin_classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1622D55-782F-46E0-9082-170C5E462B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7507D210-1006-4F09-B67A-E44B1DD8D9C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A9C22603-7041-48CF-BF61-745C2CAF1C55}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9C22603-7041-48CF-BF61-745C2CAF1C55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="159">
   <si>
     <t>ID</t>
   </si>
@@ -391,6 +391,123 @@
   </si>
   <si>
     <t>clip40</t>
+  </si>
+  <si>
+    <t>clip41</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ux-Wpd_0T0U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 Qatar Open </t>
+  </si>
+  <si>
+    <t>Hugo Calderano</t>
+  </si>
+  <si>
+    <t>Tomokazu Harimoto</t>
+  </si>
+  <si>
+    <t>0:52.17</t>
+  </si>
+  <si>
+    <t>1:08.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019 Qatar Open </t>
+  </si>
+  <si>
+    <t>clip42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 Qatar Open </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021 Qatar Open </t>
+  </si>
+  <si>
+    <t>clip43</t>
+  </si>
+  <si>
+    <t>clip44</t>
+  </si>
+  <si>
+    <t>1:26.13</t>
+  </si>
+  <si>
+    <t>1:27.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022 Qatar Open </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 Qatar Open </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024 Qatar Open </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025 Qatar Open </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Qatar Open </t>
+  </si>
+  <si>
+    <t>clip45</t>
+  </si>
+  <si>
+    <t>clip46</t>
+  </si>
+  <si>
+    <t>clip47</t>
+  </si>
+  <si>
+    <t>clip48</t>
+  </si>
+  <si>
+    <t>clip49</t>
+  </si>
+  <si>
+    <t>2:45.68</t>
+  </si>
+  <si>
+    <t>2:46.53</t>
+  </si>
+  <si>
+    <t>3:01.51</t>
+  </si>
+  <si>
+    <t>3:23.34</t>
+  </si>
+  <si>
+    <t>5:21.30</t>
+  </si>
+  <si>
+    <t>16:54.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027 Qatar Open </t>
+  </si>
+  <si>
+    <t>clip50</t>
+  </si>
+  <si>
+    <t>clip51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028 Qatar Open </t>
+  </si>
+  <si>
+    <t>18:02.80</t>
+  </si>
+  <si>
+    <t>clip52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029 Qatar Open </t>
+  </si>
+  <si>
+    <t>22:58.20</t>
   </si>
 </sst>
 </file>
@@ -784,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172545AB-FD49-4BA5-8D0D-D9C0E3079292}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2240,10 +2357,424 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J42" s="1"/>
+      <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" t="s">
+        <v>124</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J43" s="1"/>
+      <c r="A43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" t="s">
+        <v>124</v>
+      </c>
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" t="s">
+        <v>124</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" t="s">
+        <v>124</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" t="s">
+        <v>124</v>
+      </c>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" t="s">
+        <v>124</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51" t="s">
+        <v>124</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>66</v>
+      </c>
+      <c r="H52" t="s">
+        <v>124</v>
+      </c>
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>66</v>
+      </c>
+      <c r="H53" t="s">
+        <v>123</v>
+      </c>
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2288,11 +2819,17 @@
     <hyperlink ref="J30" r:id="rId21" xr:uid="{D5ADBEBE-B781-4FE9-BC8D-E3800617174A}"/>
     <hyperlink ref="J31" r:id="rId22" xr:uid="{861DCC2F-3454-41B3-9970-BB1F6A1A6763}"/>
     <hyperlink ref="J32" r:id="rId23" xr:uid="{3501DFFE-53F9-4118-90AA-67D573CF9732}"/>
+    <hyperlink ref="J42" r:id="rId24" xr:uid="{85D30AC9-B844-4248-B9D1-AB3056B0C5B9}"/>
+    <hyperlink ref="J43" r:id="rId25" xr:uid="{7A26900D-8BFE-4CBB-A792-F4D02F3F2331}"/>
+    <hyperlink ref="J44:J50" r:id="rId26" display="https://www.youtube.com/watch?v=Ux-Wpd_0T0U" xr:uid="{73F0BC0E-74A0-4590-B1F3-9905097C7EA3}"/>
+    <hyperlink ref="J51" r:id="rId27" xr:uid="{163F6B2E-E6AF-4E59-B7E7-607BE17BD9A8}"/>
+    <hyperlink ref="J52" r:id="rId28" xr:uid="{4DD23F56-3436-4392-BA89-DC2094AF04B4}"/>
+    <hyperlink ref="J53" r:id="rId29" xr:uid="{36C1A1AC-9E66-4565-A4A0-317074969782}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId30"/>
   <tableParts count="1">
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Metadata_youtube.xlsx
+++ b/Metadata_youtube.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vatsa\TT\SpinClassifier\TT_spin_classifier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vyas Raina\Documents\Software_Projects\TT\Model\TT_spin_classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7507D210-1006-4F09-B67A-E44B1DD8D9C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B3AF2E-BE88-4D3B-B140-53D767391E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9C22603-7041-48CF-BF61-745C2CAF1C55}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A9C22603-7041-48CF-BF61-745C2CAF1C55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="175">
   <si>
     <t>ID</t>
   </si>
@@ -414,18 +408,9 @@
     <t>1:08.74</t>
   </si>
   <si>
-    <t xml:space="preserve">2019 Qatar Open </t>
-  </si>
-  <si>
     <t>clip42</t>
   </si>
   <si>
-    <t xml:space="preserve">2020 Qatar Open </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021 Qatar Open </t>
-  </si>
-  <si>
     <t>clip43</t>
   </si>
   <si>
@@ -438,21 +423,6 @@
     <t>1:27.42</t>
   </si>
   <si>
-    <t xml:space="preserve">2022 Qatar Open </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023 Qatar Open </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024 Qatar Open </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025 Qatar Open </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026 Qatar Open </t>
-  </si>
-  <si>
     <t>clip45</t>
   </si>
   <si>
@@ -486,28 +456,100 @@
     <t>16:54.47</t>
   </si>
   <si>
-    <t xml:space="preserve">2027 Qatar Open </t>
-  </si>
-  <si>
     <t>clip50</t>
   </si>
   <si>
     <t>clip51</t>
   </si>
   <si>
-    <t xml:space="preserve">2028 Qatar Open </t>
-  </si>
-  <si>
     <t>18:02.80</t>
   </si>
   <si>
     <t>clip52</t>
   </si>
   <si>
-    <t xml:space="preserve">2029 Qatar Open </t>
-  </si>
-  <si>
     <t>22:58.20</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9_x90IzBMCA</t>
+  </si>
+  <si>
+    <t>Rio2016 Asia Qualifiers</t>
+  </si>
+  <si>
+    <t>Kim Olga</t>
+  </si>
+  <si>
+    <t>Neda Shahsavari</t>
+  </si>
+  <si>
+    <t>clip53</t>
+  </si>
+  <si>
+    <t>0:39.20</t>
+  </si>
+  <si>
+    <t>clip54</t>
+  </si>
+  <si>
+    <t>clip55</t>
+  </si>
+  <si>
+    <t>clip56</t>
+  </si>
+  <si>
+    <t>clip57</t>
+  </si>
+  <si>
+    <t>clip58</t>
+  </si>
+  <si>
+    <t>clip59</t>
+  </si>
+  <si>
+    <t>clip60</t>
+  </si>
+  <si>
+    <t>0:43.46</t>
+  </si>
+  <si>
+    <t>1:15.53</t>
+  </si>
+  <si>
+    <t>CHOP</t>
+  </si>
+  <si>
+    <t>1:16.63</t>
+  </si>
+  <si>
+    <t>3:56.96</t>
+  </si>
+  <si>
+    <t>4:21.36</t>
+  </si>
+  <si>
+    <t>clip61</t>
+  </si>
+  <si>
+    <t>clip62</t>
+  </si>
+  <si>
+    <t>clip63</t>
+  </si>
+  <si>
+    <t>6:41.23</t>
+  </si>
+  <si>
+    <t>7:49.50</t>
+  </si>
+  <si>
+    <t>18:53.33</t>
+  </si>
+  <si>
+    <t>23:59.20</t>
+  </si>
+  <si>
+    <t>53:47.10</t>
   </si>
 </sst>
 </file>
@@ -585,8 +627,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66369352-10E0-472D-8237-914C7EC25ECA}" name="Table1" displayName="Table1" ref="A1:K61" totalsRowShown="0">
-  <autoFilter ref="A1:K61" xr:uid="{81BED2F6-A735-48E8-8312-3441EAEEF1B9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66369352-10E0-472D-8237-914C7EC25ECA}" name="Table1" displayName="Table1" ref="A1:K327" totalsRowShown="0">
+  <autoFilter ref="A1:K327" xr:uid="{81BED2F6-A735-48E8-8312-3441EAEEF1B9}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{DF59981D-0EFF-443B-97EC-88206A26AB07}" name="ID"/>
     <tableColumn id="2" xr3:uid="{85D201EA-997B-46FC-ABB5-FBAEB62C900B}" name="FH/BH"/>
@@ -901,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172545AB-FD49-4BA5-8D0D-D9C0E3079292}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2393,7 +2435,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
@@ -2402,7 +2444,7 @@
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E43" t="s">
         <v>123</v>
@@ -2428,7 +2470,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -2437,7 +2479,7 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E44" t="s">
         <v>123</v>
@@ -2458,12 +2500,12 @@
         <v>121</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
@@ -2472,7 +2514,7 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E45" t="s">
         <v>123</v>
@@ -2493,12 +2535,12 @@
         <v>121</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
@@ -2507,7 +2549,7 @@
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E46" t="s">
         <v>123</v>
@@ -2528,12 +2570,12 @@
         <v>121</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
@@ -2542,7 +2584,7 @@
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E47" t="s">
         <v>123</v>
@@ -2563,12 +2605,12 @@
         <v>121</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -2577,7 +2619,7 @@
         <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
         <v>123</v>
@@ -2598,12 +2640,12 @@
         <v>121</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
@@ -2612,7 +2654,7 @@
         <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E49" t="s">
         <v>123</v>
@@ -2633,12 +2675,12 @@
         <v>121</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
@@ -2647,7 +2689,7 @@
         <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E50" t="s">
         <v>123</v>
@@ -2668,12 +2710,12 @@
         <v>121</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
@@ -2682,7 +2724,7 @@
         <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="E51" t="s">
         <v>123</v>
@@ -2703,12 +2745,12 @@
         <v>121</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
@@ -2717,7 +2759,7 @@
         <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
         <v>123</v>
@@ -2738,12 +2780,12 @@
         <v>121</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
@@ -2752,7 +2794,7 @@
         <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="E53" t="s">
         <v>124</v>
@@ -2773,12 +2815,400 @@
         <v>121</v>
       </c>
       <c r="K53" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>66</v>
+      </c>
+      <c r="H54" t="s">
+        <v>151</v>
+      </c>
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" t="s">
+        <v>151</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" t="s">
+        <v>151</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>66</v>
+      </c>
+      <c r="H57" t="s">
+        <v>151</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>66</v>
+      </c>
+      <c r="H58" t="s">
+        <v>151</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>158</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" t="s">
+        <v>151</v>
+      </c>
+      <c r="I59" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" t="s">
+        <v>151</v>
+      </c>
+      <c r="F60" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" t="s">
+        <v>150</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61" t="s">
+        <v>150</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" t="s">
+        <v>66</v>
+      </c>
+      <c r="H62" t="s">
+        <v>150</v>
+      </c>
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" t="s">
+        <v>150</v>
+      </c>
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64" t="s">
+        <v>37</v>
+      </c>
+      <c r="G64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H64" t="s">
+        <v>150</v>
+      </c>
+      <c r="I64" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I327 H328:H1048576" xr:uid="{A1296B59-2288-4745-AA5B-44A4FA2D861F}">
+      <formula1>"LEFT,RIGHT,CENTRE"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{2E77D5AE-80A7-4DAD-A997-2F60E5ED1395}">
       <formula1>"FH,BH"</formula1>
     </dataValidation>
@@ -2787,9 +3217,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{F76C36A9-DCB9-4CC9-8BAC-E39A10C32D78}">
       <formula1>"SPEED DRIVE,LOOP DRIVE,FLICK,SMASH,SLICE,CHOP,BLOCK,PUSH-BLOCK,SIDE DRIVE,LOB,STOP"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H62:H1048576 I1:I61" xr:uid="{A1296B59-2288-4745-AA5B-44A4FA2D861F}">
-      <formula1>"LEFT,RIGHT,CENTRE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{101F5CD2-4675-487D-B173-6B9245FF1FAF}">
       <formula1>"YES,NO"</formula1>
@@ -2825,11 +3252,16 @@
     <hyperlink ref="J51" r:id="rId27" xr:uid="{163F6B2E-E6AF-4E59-B7E7-607BE17BD9A8}"/>
     <hyperlink ref="J52" r:id="rId28" xr:uid="{4DD23F56-3436-4392-BA89-DC2094AF04B4}"/>
     <hyperlink ref="J53" r:id="rId29" xr:uid="{36C1A1AC-9E66-4565-A4A0-317074969782}"/>
+    <hyperlink ref="J54" r:id="rId30" xr:uid="{A306EBEC-874D-473D-B16B-BB3C6AEF89DC}"/>
+    <hyperlink ref="J55:J59" r:id="rId31" display="https://www.youtube.com/watch?v=9_x90IzBMCA" xr:uid="{46E66AA7-C776-4458-B2CF-CE69278E887D}"/>
+    <hyperlink ref="J60:J62" r:id="rId32" display="https://www.youtube.com/watch?v=9_x90IzBMCA" xr:uid="{D068006E-93C9-4A9A-9CE8-A8F18FE7340F}"/>
+    <hyperlink ref="J63" r:id="rId33" xr:uid="{F44587FB-19D6-4FB1-AD59-54847C69E2F6}"/>
+    <hyperlink ref="J64" r:id="rId34" xr:uid="{552C07A4-CD4B-49CF-B27A-7D428157C1B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId35"/>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId36"/>
   </tableParts>
 </worksheet>
 </file>